--- a/data/trans_dic/P25A_5_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P25A_5_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por asma</t>
+          <t>Población con limitación por asma (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -573,57 +586,87 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M4</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M3</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1</t>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>3,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>19,66%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>1,92%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,62%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,81%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>5,0%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,33</t>
+          <t>0,0; 4,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,67</t>
+          <t>0,0; 4,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,34; 57,67</t>
+          <t>0,99; 9,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 9,53</t>
+          <t>1,9; 11,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 3,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,04</t>
+          <t>1,34; 7,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 50,13</t>
+          <t>0,92; 5,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,27; 5,78</t>
+          <t>0,43; 4,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,8</t>
+          <t>0,0; 5,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 3,63</t>
+          <t>1,53; 9,23</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>10,66; 45,69</t>
+          <t>0,46; 5,37</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 4,98</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,75; 3,46</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 1,83</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 5,55</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 8,94</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>0,23; 2,76</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>2,39%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4,22%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2,11%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>4,65%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,93%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>2,44%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,43%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>20,27%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>2,19%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>2,76%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>36,74%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2,37%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>2,39%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>31,26%</t>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 6,32</t>
+          <t>0,62; 6,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,89; 5,68</t>
+          <t>0,74; 5,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,96</t>
+          <t>0,92; 5,33</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,84</t>
+          <t>0,0; 5,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,0</t>
+          <t>1,58; 9,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,02</t>
+          <t>1,04; 7,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 5,33</t>
+          <t>0,56; 5,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,79; 60,81</t>
+          <t>1,19; 5,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,04; 4,22</t>
+          <t>0,82; 5,16</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,04</t>
+          <t>2,02; 7,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,36; 4,54</t>
+          <t>1,91; 9,15</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,19; 50,69</t>
+          <t>3,6; 11,61</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>1,01; 4,15</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 4,63</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>1,33; 4,3</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,23; 4,87</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2,51; 7,33</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>2,86; 7,76</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,48%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>4,6%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>5,27%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,13%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,0%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,37%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>3,3%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,22</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,25</t>
+          <t>0,91; 4,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 4,3</t>
+          <t>0,24; 2,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,02; 61,11</t>
+          <t>1,29; 5,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,22</t>
+          <t>0,6; 5,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,94</t>
+          <t>0,44; 4,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,93</t>
+          <t>0,35; 3,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,44; 49,78</t>
+          <t>0,72; 4,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,19</t>
+          <t>0,94; 4,17</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,63</t>
+          <t>0,79; 4,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 3,42</t>
+          <t>2,24; 7,93</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>17,56; 47,97</t>
+          <t>3,08; 9,2</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 2,36</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,12; 3,44</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>0,7; 2,79</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,26; 4,02</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 5,36</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>2,16; 5,68</t>
         </is>
       </c>
     </row>
@@ -1081,57 +1310,87 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>41,68%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>2,13%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>2,42%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>36,22%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,06%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>4,41%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5,55%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>1,86%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
           <t>1,77%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>1,92%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>38,17%</t>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>2,48%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,23</t>
+          <t>0,32; 3,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 3,58</t>
+          <t>0,55; 3,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 76,61</t>
+          <t>0,43; 4,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,19</t>
+          <t>0,49; 5,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,86</t>
+          <t>0,28; 2,89</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,63</t>
+          <t>0,81; 4,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,87; 58,31</t>
+          <t>1,08; 4,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,43; 2,24</t>
+          <t>0,83; 3,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,93</t>
+          <t>1,28; 6,28</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,31</t>
+          <t>2,38; 7,7</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,82; 57,63</t>
+          <t>3,28; 8,41</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>0,51; 2,51</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>0,98; 3,19</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>0,91; 2,81</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1,34; 4,44</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 5,04</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 5,04</t>
         </is>
       </c>
     </row>
@@ -1221,57 +1510,87 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>52,48%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,29%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>3,44%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>49,38%</t>
+          <t>3,51%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,66%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>4,53%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,27%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,45%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,73%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,08%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>2,49%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>2,04%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>50,48%</t>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>3,74%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1,96%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 8,7</t>
+          <t>0,0; 2,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,91</t>
+          <t>0,94; 8,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,91; 88,28</t>
+          <t>1,06; 6,5</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,76</t>
+          <t>0,6; 5,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 4,27</t>
+          <t>0,0; 2,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,9; 6,25</t>
+          <t>0,42; 3,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25,06; 69,99</t>
+          <t>1,73; 6,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,81</t>
+          <t>0,95; 4,28</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,43</t>
+          <t>2,3; 8,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,36</t>
+          <t>3,36; 10,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,9; 66,14</t>
+          <t>1,49; 6,9</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 2,06</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1,18; 3,49</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>1,28; 5,76</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,22; 6,12</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>2,58; 6,67</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 3,82</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>48,27%</t>
+          <t>1,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,4%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>27,69%</t>
+          <t>11,15%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>3,68%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1,47%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,49; 6,89</t>
+          <t>0,49; 7,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,36; 3,65</t>
+          <t>1,53; 7,38</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,84</t>
+          <t>0,37; 3,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>0,0; 6,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,47; 8,46</t>
+          <t>0,0; 3,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,22; 11,4</t>
+          <t>0,0; 4,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 5,07</t>
+          <t>1,95; 9,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,67</t>
+          <t>0,78; 5,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,02</t>
+          <t>3,64; 14,76</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,61</t>
+          <t>0,0; 3,82</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>1,44; 4,74</t>
+          <t>1,88; 9,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>6,23; 56,45</t>
+          <t>5,79; 22,73</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 7,76</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>1,45; 4,83</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>2,49; 9,64</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 3,67</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1,36; 6,48</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 13,88</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>35,14%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>2,74%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>2,48%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>2,77%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>2,44%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>32,37%</t>
-        </is>
-      </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,83%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>33,58%</t>
+          <t>6,05%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,91%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,18%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>3,74%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,15</t>
+          <t>0,6; 2,14</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,31</t>
+          <t>1,24; 2,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,35; 2,8</t>
+          <t>0,92; 2,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>23,33; 47,63</t>
+          <t>1,51; 3,55</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 3,69</t>
+          <t>1,85; 4,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,01</t>
+          <t>0,72; 2,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,34</t>
+          <t>1,81; 3,74</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>23,74; 42,46</t>
+          <t>1,73; 3,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,32; 2,61</t>
+          <t>2,12; 4,59</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,85</t>
+          <t>1,89; 3,75</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,83</t>
+          <t>3,76; 6,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>26,62; 41,78</t>
+          <t>4,62; 8,52</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>1,42; 2,69</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>1,66; 2,78</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>1,75; 3,32</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1,94; 3,29</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 4,72</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 5,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por asma (tasa de respuesta: 99,92%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6892</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6108</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1591</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>2373</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18517</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12731</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>6931</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>635</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1756</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>9163</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>25409</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>18839</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6931</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>2226</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>4129</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>9163</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 24369</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 21215</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>415; 3873</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>838; 5212</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6302; 35018</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4739; 28609</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>2196; 21411</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>0; 2127</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>591; 3559</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>2203; 25633</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>9858; 48339</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>7809; 35994</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>2174; 18736</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>806; 4395</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2226; 7385</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>2222; 26168</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>14059</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>13537</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14869</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2036</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>17442</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>10900</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14057</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>12205</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>2142</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>35009</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>24960</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>27594</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>27074</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2532</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>4177</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>52452</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3540; 34575</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4178; 33881</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>5494; 31666</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 2787</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>759; 4488</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5987; 44739</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>2882; 27055</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6028; 28054</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4258; 26685</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>952; 3697</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>880; 4208</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>18164; 58667</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>11027; 45169</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>14426; 49728</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>14835; 47761</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1190; 4728</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>2365; 6905</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>30956; 84023</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>5585</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>15177</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6010</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>1619</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1299</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>11195</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>10161</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12723</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>14491</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>1085</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>2521</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>37778</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>15746</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>27900</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>20501</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2705</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>3820</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>48973</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0; 21600</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6169; 31489</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1637; 17084</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>775; 3437</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>367; 3182</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2974; 27680</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2485; 25997</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5136; 29038</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6678; 29757</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>424; 2420</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1226; 4348</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22084; 66041</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>5830; 33007</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>15611; 48062</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>9717; 38943</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1435; 4576</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>2108; 6192</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>30043; 79242</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>8164</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>9349</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1073</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6633</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14586</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>16288</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>13579</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1672</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2360</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>36689</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>14586</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>24452</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>22929</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>2745</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>3505</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>43323</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2060; 19994</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3485; 21116</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>252; 2605</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>280; 2903</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1845; 18943</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>5504; 30279</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>7294; 30703</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>5497; 25268</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>670; 3290</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1275; 4119</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>21668; 55609</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>6742; 33457</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>12916; 41969</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>11770; 36434</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1485; 4912</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>2033; 5558</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>29024; 66348</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3271</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>14488</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1283</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2051</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7306</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>17639</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10655</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>2197</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2925</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17732</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>7306</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>20910</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>25142</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>3480</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>3946</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>19783</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 12110</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4634; 43271</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>470; 2891</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>266; 2313</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>0; 10341</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2142; 19885</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8692; 31827</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4885; 22071</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1114; 3938</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1566; 4719</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7693; 35490</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>2134; 20579</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>11882; 35091</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>12873; 58078</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>2062; 5690</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>2351; 6068</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>9531; 38534</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>13836</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>18435</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>6877</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>8158</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>32538</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>15941</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>50913</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>3025</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>81900</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>46373</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>34376</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>57789</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1630</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>3356</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>90059</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>2680; 40233</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>8101; 39030</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1944; 17875</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>0; 3112</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1664</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>0; 27630</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>13916; 67742</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>5447; 36237</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>25193; 102265</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>0; 2436</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>1196; 6169</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>42512; 166956</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>24730; 97749</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>17786; 59159</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>30449; 118129</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>437; 4058</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1493; 7092</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>53721; 180602</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>40372</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>64691</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>51593</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>6996</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>8206</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>45480</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>94008</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>89380</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>108773</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>8322</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>14729</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>218272</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>134380</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>154071</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>160366</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>15318</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>22935</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>263751</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>20816; 73749</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>42726; 98172</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>31607; 78922</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>4560; 10718</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>5542; 12790</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>24781; 75189</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>65042; 134752</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>62478; 121311</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>76642; 165573</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>5720; 11356</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>11387; 18814</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>166666; 307708</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>100100; 189812</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>117043; 195762</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>123386; 234682</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>11755; 19883</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>17938; 28473</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>209374; 355897</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
